--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>1371.622822724727</v>
+        <v>6048.342782978461</v>
       </c>
       <c r="R2">
-        <v>12344.60540452254</v>
+        <v>54435.08504680615</v>
       </c>
       <c r="S2">
-        <v>0.003552880656562912</v>
+        <v>0.009881538276666156</v>
       </c>
       <c r="T2">
-        <v>0.003552880656562911</v>
+        <v>0.009881538276666154</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>647.8877914565221</v>
+        <v>2181.003622499183</v>
       </c>
       <c r="R3">
-        <v>5830.990123108699</v>
+        <v>19629.03260249264</v>
       </c>
       <c r="S3">
-        <v>0.00167820771406857</v>
+        <v>0.003563235674724814</v>
       </c>
       <c r="T3">
-        <v>0.001678207714068569</v>
+        <v>0.003563235674724813</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>26.467591681566</v>
+        <v>28.61121307856166</v>
       </c>
       <c r="R4">
-        <v>238.208325134094</v>
+        <v>257.500917707055</v>
       </c>
       <c r="S4">
-        <v>6.855834778575536E-05</v>
+        <v>4.674384493770931E-05</v>
       </c>
       <c r="T4">
-        <v>6.855834778575533E-05</v>
+        <v>4.674384493770931E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>302.8427603595271</v>
+        <v>735.0973780030977</v>
       </c>
       <c r="R5">
-        <v>2725.584843235743</v>
+        <v>6615.87640202788</v>
       </c>
       <c r="S5">
-        <v>0.0007844461082413894</v>
+        <v>0.001200972421446903</v>
       </c>
       <c r="T5">
-        <v>0.0007844461082413891</v>
+        <v>0.001200972421446902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>636.3816159620341</v>
+        <v>3844.626476409746</v>
       </c>
       <c r="R6">
-        <v>5727.434543658306</v>
+        <v>34601.63828768772</v>
       </c>
       <c r="S6">
-        <v>0.001648403552408314</v>
+        <v>0.00628119553558417</v>
       </c>
       <c r="T6">
-        <v>0.001648403552408313</v>
+        <v>0.006281195535584169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J7">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>164910.1157522234</v>
+        <v>272827.4002197526</v>
       </c>
       <c r="R7">
-        <v>1484191.04177001</v>
+        <v>2455446.601977773</v>
       </c>
       <c r="S7">
-        <v>0.427162592091989</v>
+        <v>0.4457343928624361</v>
       </c>
       <c r="T7">
-        <v>0.427162592091989</v>
+        <v>0.445734392862436</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>77895.50371530231</v>
+        <v>98380.26208945997</v>
       </c>
       <c r="R8">
-        <v>701059.5334377208</v>
+        <v>885422.3588051397</v>
       </c>
       <c r="S8">
-        <v>0.2017707957305287</v>
+        <v>0.1607297007440309</v>
       </c>
       <c r="T8">
-        <v>0.2017707957305286</v>
+        <v>0.1607297007440308</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>3182.19669108379</v>
+        <v>1290.588705277282</v>
       </c>
       <c r="R9">
-        <v>28639.77021975411</v>
+        <v>11615.29834749554</v>
       </c>
       <c r="S9">
-        <v>0.008242765344681867</v>
+        <v>0.002108511727629028</v>
       </c>
       <c r="T9">
-        <v>0.008242765344681866</v>
+        <v>0.002108511727629027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>36410.76383258413</v>
+        <v>33158.62108763951</v>
       </c>
       <c r="R10">
-        <v>327696.8744932572</v>
+        <v>298427.5897887556</v>
       </c>
       <c r="S10">
-        <v>0.09431390056232006</v>
+        <v>0.05417321657117235</v>
       </c>
       <c r="T10">
-        <v>0.09431390056232003</v>
+        <v>0.05417321657117233</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>76512.11704279706</v>
+        <v>173422.6190563833</v>
       </c>
       <c r="R11">
-        <v>688609.0533851736</v>
+        <v>1560803.57150745</v>
       </c>
       <c r="S11">
-        <v>0.1981874434649786</v>
+        <v>0.2833308742136892</v>
       </c>
       <c r="T11">
-        <v>0.1981874434649785</v>
+        <v>0.2833308742136892</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H12">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I12">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J12">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>124.840184957242</v>
+        <v>24.35927492010834</v>
       </c>
       <c r="R12">
-        <v>1123.561664615178</v>
+        <v>219.233474280975</v>
       </c>
       <c r="S12">
-        <v>0.0003233704418939495</v>
+        <v>3.979720001853963E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003233704418939494</v>
+        <v>3.979720001853962E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H13">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I13">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J13">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>58.96842074725645</v>
+        <v>8.783838606456667</v>
       </c>
       <c r="R13">
-        <v>530.715786725308</v>
+        <v>79.05454745811001</v>
       </c>
       <c r="S13">
-        <v>0.0001527444410736792</v>
+        <v>1.435068092536523E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001527444410736791</v>
+        <v>1.435068092536523E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>2.408985171547111</v>
+        <v>0.115229647225</v>
       </c>
       <c r="R14">
-        <v>21.680866543924</v>
+        <v>1.037066825025</v>
       </c>
       <c r="S14">
-        <v>6.239934678933456E-06</v>
+        <v>1.882575459950796E-07</v>
       </c>
       <c r="T14">
-        <v>6.239934678933454E-06</v>
+        <v>1.882575459950796E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>27.56366078915311</v>
+        <v>2.960552959105</v>
       </c>
       <c r="R15">
-        <v>248.072947102378</v>
+        <v>26.644976631945</v>
       </c>
       <c r="S15">
-        <v>7.139746847264113E-05</v>
+        <v>4.836831911680606E-06</v>
       </c>
       <c r="T15">
-        <v>7.13974684726411E-05</v>
+        <v>4.836831911680606E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>57.92116996294178</v>
+        <v>15.483962576915</v>
       </c>
       <c r="R16">
-        <v>521.290529666476</v>
+        <v>139.355663192235</v>
       </c>
       <c r="S16">
-        <v>0.0001500317732815447</v>
+        <v>2.52970729947461E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001500317732815446</v>
+        <v>2.52970729947461E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H17">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I17">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J17">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>10633.10902140007</v>
+        <v>9296.942649574814</v>
       </c>
       <c r="R17">
-        <v>95697.98119260062</v>
+        <v>83672.48384617332</v>
       </c>
       <c r="S17">
-        <v>0.02754267917925907</v>
+        <v>0.01518896959780177</v>
       </c>
       <c r="T17">
-        <v>0.02754267917925907</v>
+        <v>0.01518896959780176</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H18">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I18">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J18">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>5022.562621483798</v>
+        <v>3352.433273780943</v>
       </c>
       <c r="R18">
-        <v>45203.06359335418</v>
+        <v>30171.89946402848</v>
       </c>
       <c r="S18">
-        <v>0.01300981967389365</v>
+        <v>0.005477070150201107</v>
       </c>
       <c r="T18">
-        <v>0.01300981967389365</v>
+        <v>0.005477070150201104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H19">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I19">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J19">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>205.1823454825044</v>
+        <v>43.97846098847667</v>
       </c>
       <c r="R19">
-        <v>1846.64110934254</v>
+        <v>395.80614889629</v>
       </c>
       <c r="S19">
-        <v>0.000531478752216199</v>
+        <v>7.18502342210999E-05</v>
       </c>
       <c r="T19">
-        <v>0.0005314787522161989</v>
+        <v>7.185023422109986E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>2347.700864912515</v>
+        <v>1129.922428401485</v>
       </c>
       <c r="R20">
-        <v>21129.30778421263</v>
+        <v>10169.30185561336</v>
       </c>
       <c r="S20">
-        <v>0.00608119145595296</v>
+        <v>0.001846021650316344</v>
       </c>
       <c r="T20">
-        <v>0.006081191455952959</v>
+        <v>0.001846021650316343</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N21">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O21">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P21">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q21">
-        <v>4933.364325549051</v>
+        <v>5909.597577837148</v>
       </c>
       <c r="R21">
-        <v>44400.27892994146</v>
+        <v>53186.37820053433</v>
       </c>
       <c r="S21">
-        <v>0.01277877153516744</v>
+        <v>0.0096548619614338</v>
       </c>
       <c r="T21">
-        <v>0.01277877153516744</v>
+        <v>0.009654861961433796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H22">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I22">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J22">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N22">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O22">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P22">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q22">
-        <v>56.98806455316799</v>
+        <v>146.9005400345267</v>
       </c>
       <c r="R22">
-        <v>512.8925809785119</v>
+        <v>1322.10486031074</v>
       </c>
       <c r="S22">
-        <v>0.0001476147734285284</v>
+        <v>0.0002400001721627412</v>
       </c>
       <c r="T22">
-        <v>0.0001476147734285283</v>
+        <v>0.0002400001721627412</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H23">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I23">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J23">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N23">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q23">
-        <v>26.91838504800356</v>
+        <v>52.97163561298934</v>
       </c>
       <c r="R23">
-        <v>242.265465432032</v>
+        <v>476.744720516904</v>
       </c>
       <c r="S23">
-        <v>6.972602668784685E-05</v>
+        <v>8.654291988219648E-05</v>
       </c>
       <c r="T23">
-        <v>6.972602668784684E-05</v>
+        <v>8.654291988219644E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H24">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I24">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J24">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N24">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O24">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P24">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q24">
-        <v>1.099673174232889</v>
+        <v>0.6949015297399999</v>
       </c>
       <c r="R24">
-        <v>9.897058568095998</v>
+        <v>6.254113767659999</v>
       </c>
       <c r="S24">
-        <v>2.848456211534817E-06</v>
+        <v>1.135302067198351E-06</v>
       </c>
       <c r="T24">
-        <v>2.848456211534816E-06</v>
+        <v>1.135302067198351E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H25">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I25">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J25">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N25">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q25">
-        <v>12.58248440525689</v>
+        <v>17.853849505772</v>
       </c>
       <c r="R25">
-        <v>113.242359647312</v>
+        <v>160.684645551948</v>
       </c>
       <c r="S25">
-        <v>3.259209799829455E-05</v>
+        <v>2.916889859047385E-05</v>
       </c>
       <c r="T25">
-        <v>3.259209799829455E-05</v>
+        <v>2.916889859047385E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N26">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O26">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P26">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q26">
-        <v>26.44032747927822</v>
+        <v>93.37726479475599</v>
       </c>
       <c r="R26">
-        <v>237.962947313504</v>
+        <v>840.3953831528039</v>
       </c>
       <c r="S26">
-        <v>6.848772599722864E-05</v>
+        <v>0.0001525560057271407</v>
       </c>
       <c r="T26">
-        <v>6.848772599722861E-05</v>
+        <v>0.0001525560057271407</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H27">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I27">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J27">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N27">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O27">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P27">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q27">
-        <v>287.5420682838419</v>
+        <v>33.73188063175945</v>
       </c>
       <c r="R27">
-        <v>2587.878614554577</v>
+        <v>303.586925685835</v>
       </c>
       <c r="S27">
-        <v>0.0007448131041770955</v>
+        <v>5.510978487276185E-05</v>
       </c>
       <c r="T27">
-        <v>0.0007448131041770954</v>
+        <v>5.510978487276184E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H28">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I28">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J28">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N28">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q28">
-        <v>135.8208630570786</v>
+        <v>12.16355562032956</v>
       </c>
       <c r="R28">
-        <v>1222.387767513708</v>
+        <v>109.472000582966</v>
       </c>
       <c r="S28">
-        <v>0.0003518134206564013</v>
+        <v>1.987232614872653E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003518134206564012</v>
+        <v>1.987232614872652E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H29">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I29">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J29">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N29">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O29">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P29">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q29">
-        <v>5.548570589902665</v>
+        <v>0.1595660264183333</v>
       </c>
       <c r="R29">
-        <v>49.93713530912399</v>
+        <v>1.436094237765</v>
       </c>
       <c r="S29">
-        <v>1.43723250982937E-05</v>
+        <v>2.606925325306747E-07</v>
       </c>
       <c r="T29">
-        <v>1.43723250982937E-05</v>
+        <v>2.606925325306746E-07</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H30">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I30">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J30">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N30">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q30">
-        <v>63.48686551130866</v>
+        <v>4.099671248346333</v>
       </c>
       <c r="R30">
-        <v>571.381789601778</v>
+        <v>36.89704123511699</v>
       </c>
       <c r="S30">
-        <v>0.000164448456735987</v>
+        <v>6.697877388214536E-06</v>
       </c>
       <c r="T30">
-        <v>0.000164448456735987</v>
+        <v>6.697877388214534E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H31">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I31">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J31">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N31">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O31">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P31">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q31">
-        <v>133.4087498690306</v>
+        <v>21.44165534746567</v>
       </c>
       <c r="R31">
-        <v>1200.678748821276</v>
+        <v>192.974898127191</v>
       </c>
       <c r="S31">
-        <v>0.0003455653835537292</v>
+        <v>3.503051094050733E-05</v>
       </c>
       <c r="T31">
-        <v>0.000345565383553729</v>
+        <v>3.503051094050733E-05</v>
       </c>
     </row>
   </sheetData>
